--- a/myDoc.xlsx
+++ b/myDoc.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>changes 2</t>
   </si>
   <si>
     <t xml:space="preserve"> first commit</t>
+  </si>
+  <si>
+    <t>newB content updated</t>
   </si>
 </sst>
 </file>
@@ -353,9 +356,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -369,6 +374,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
